--- a/excel/유의어DB.xlsx
+++ b/excel/유의어DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F679E1A-CFC7-4FB1-A69F-EA845FD0EDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C25A84-9172-4543-B391-348EB8C3C9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,7 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도운 친구, 도와준 친구,힘써준 친구,도움을 제공한 친구</t>
+    <t>도운 친구,도와준 친구,힘써준 친구,도움을 제공한 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜택이 축소되는 결과로 이어질 수 있다,혜택이 줄어드는 결과가 예상된다,이득이 줄게되는 모습이 될 것이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E9782-B08B-4BD9-9A5D-9888DBE83BCE}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="1" max="1" width="109.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -419,6 +423,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel/유의어DB.xlsx
+++ b/excel/유의어DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C25A84-9172-4543-B391-348EB8C3C9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B0596-5B37-4286-B60C-A12B1554CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>혜택이 축소되는 결과로 이어질 수 있다,혜택이 줄어드는 결과가 예상된다,이득이 줄게되는 모습이 될 것이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했습니다.,했어요.,했음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E9782-B08B-4BD9-9A5D-9888DBE83BCE}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,9 +446,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2662AC-E4BC-4372-B132-587203A45E0A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -466,6 +474,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/유의어DB.xlsx
+++ b/excel/유의어DB.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consolework\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B0596-5B37-4286-B60C-A12B1554CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAEFD43-E274-455A-AFBF-64EA0FB5D4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="양방향" sheetId="2" r:id="rId1"/>
-    <sheet name="일방향" sheetId="3" r:id="rId2"/>
+    <sheet name="양방향" sheetId="1" r:id="rId1"/>
+    <sheet name="일방향" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,698 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="295">
+  <si>
+    <t>였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있습니다.,있어요.,있죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>였습니다.,였어요.,였죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했습니다.,했어요.,했죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔습니다.,갔어요.,갔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졌습니다.,졌어요.,졌죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혔습니다.,혔어요.,혔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>었습니다.,었어요.,었죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐습니다.,됐어요.,됐죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>았습니다.,았어요.,았죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렸습니다.,렸어요.,렸죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.,해요.,하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋습니다.,좋아요.,좋죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입니다.,이죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냈습니다.,냈어요.,냈죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다.,아니예요.,아니죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싶다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싶습니다.,싶어요.,싶죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줍니다.,주어요.,주죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뉜다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑤신다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잦다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다고 하며,있으며,있고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵니다.,와요.,오죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봅니다.,봐요.,보죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겠습니다.,겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없습니다.,없어요.,없죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랐습니다.,랐어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납니다.,나요.,나죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥니다.,춰요.,추죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것입니다.,것이죠.,것이예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것 입니다.,것 이예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립니다.,려요.,리죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씁니다.,써요.,쓰죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겼습니다.,겼어요.,겼죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽습니다.,쉬워요.,쉽죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않습니다.,않아요.,않죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊습니다.,깊어요.,깊죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>났습니다.,났어요.,났죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줬습니다.,줬어요.,줬죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.,해요.,하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됩니다.,돼요.,되죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼽힙니다.,꼽혀요.,꼽히죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뉩니다.,나뉘어요.,나뉘죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생깁니다.,생겨요.,생기죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지칩니다.,지쳐요.,지치죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑤십니다.,쑤셔요.,쑤시죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잦습니다.,잦아요.,잦죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많습니다.,많아요.,많죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만듭니다.,만들어요.,만들죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵습니다.,어려워요.,어렵죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑니다.,가요.,가죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합시다.,해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔습니다.,왔어요.,왔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봅시다.,보아요.,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞습니다.,섞어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다툰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덥다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>췄다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑤셨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입니다.,여요.,이죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳤습니다.,쳤어요.,쳤죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웠습니다.,웠어요.,웠죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썼습니다.,썼어요.,썼죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렀습니다.,렀어요.,렀죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뤘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뤘습니다.,뤘어요.,뤘죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 웁니다.,울어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웁니다.,워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낍니다.,껴요.,끼죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼇습니다.,꼈어요.,끼죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 깁니다., 기어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑤셨습니다.,쑤셨어요.,쑤셨죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킵니다.,켜요.,키죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켰습니다.,켰어요.,켰죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>췄습니다.,췄어요.,췄죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봤습니다.,봤어요.,봤죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덥습니다.,더워요.,덥죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑습니다.,반가워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놨습니다.,놨어요.,놨죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 늘어납니다.,늘어요.,늡니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습니다.,아요.,죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섰습니다.,섰어요.,섰죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답습니다.,답죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있습니다.,있어요.,있답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없습니다.,없어요.,없답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됩니다.,돼요.,되어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드리겠습니다.,드릴게요.,드리도록 할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많습니다.,많아요.,많다고 해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높습니다.,높아요.,높다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바랍니다.,바래요.,바랄게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같습니다.,같아요.,같지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>었습니다.,었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋습니다.,좋아요.,좋답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>았습니다.,았어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보겠습니다.,볼게요.,보도록 할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하는데요.,해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있는데요.,있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.,해요.,합니다.,하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되는데요.,됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불립니다.,불려요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드렸습니다.,드렸어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집니다.,져요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩니다.,쳐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봅시다.,볼게요.,보도록 합시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔습니다.,왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졌습니다.,졌어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화려하게,수려하게,유려하게,아름답게</t>
+  </si>
   <si>
     <t>before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,31 +731,479 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화려하게,수려하게,유려하게,아름답게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있습니다.,있어요.,있죠.,있을겁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도운 친구,도와준 친구,힘써준 친구,도움을 제공한 친구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혜택이 축소되는 결과로 이어질 수 있다,혜택이 줄어드는 결과가 예상된다,이득이 줄게되는 모습이 될 것이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>했습니다.,했어요.,했음.</t>
+    <t>다툽니다.,다퉈요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릅니다.,라요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인됐습니다.,확인할 수 있습니다.,확인되고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성한,합친,합해진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 계신 것 같은데,많으신데,많으실텐데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상을,일상적인 것을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상콘텐츠,동영상 콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룹니다.,뤄요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의,나 자신만의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 먹거나,식사를 하거나,식사하거나,밥을 드시거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등의,등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘어나고 있습니다.,증가하는 추세입니다.,늘어나고 있는 모습입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매하고 있습니다.,판매하고 있다고 합니다.,판매중에 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는,지금은,요즘은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브,youtube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스타,인스타그램,instagram,인별그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS,소셜미디어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즈음,요즘 들어,요즘들어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심해야 합니다.,조심하는 것이 좋습니다.,주의해야 합니다.,주의하셔야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급증하고 있습니다,많이 늘고 있습니다.,급격히 늘어나고 있습니다.,늘어나고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋을것 같습니다.,괜찮을 것 같습니다., 괜찮을 듯 합니다.,좋을 듯 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋을 것 같습니다.,괜찮을것 같습니다., 괜찮을 듯 합니다.,좋을듯 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해볼 수 있는,할 수 있는,해볼만한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조만간,곧,지금부터,지금 바로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유서,유언장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대해서는,대해선,대해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보자.,보세요.,보시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁니다.,거예요.,것 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋겠네요.,좋겠습니다.,좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있나요,있으신가요,있으세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>났습니다.,났어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>났었습니다.,났어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되었습니다.,되었어요.,됐어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되겠네요.,되겠죠.,되겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것이 좋아요.,편이 좋아요.,게 좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줍니다.,주어요.,줘요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계셨나요,계신가요,있으셨나요,있었나요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듭니다.,들어요.,들게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돕습니다.,도와요.,도와줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봅니다.,봐요.,봅시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했어요.,했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했답니다.,했어요.,했지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하겠습니다.,해 보겠습니다.,해 볼게요.,해볼게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하네요.,해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과를 보인다는,효과가 좋다는,효과가 나타난다는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고하세요.,참고하시기 바래요.,참고하시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알아보겠습니다.,알아보시죠.,알아보도록 하겠습니다.,알아볼게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킵니다.,켜요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드립니다.,드려요.,드리겠습니다.,드리도록 하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻습니다.,얻어요.,얻게 돼요.,얻게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하였습니다.,하였어요.,했습니다.,했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마치겠습니다.,마칠게요.,마치도록 하겠습니다.,마칩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다.,아니예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입니다.,이죠.,이지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않습니다.,않아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃습니다.,잃어요.,잃게 돼요.,잃게 되어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>였습니다.,였어요.,였답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부릅니다.,불러요.,불리워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔습니다.,갔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납니다.,났어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인데요.,입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일종인,한 종류인,하나인,한 가지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하게 만들고,강하게 하고,강하게 만들며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하게 하고,하게 해주고,하게 하며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 강력한, 강한, 엄청난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움이 되는,도움을 주는,도움되는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하여 ,해서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감소시켜,낮춰,낮추어,감소하게 만들어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소,평상시,평상시에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮추어,낮춰,감소시켜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움이 되기,도움을 주기,도움 되기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가시키,늘려주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑게하,맑게해주,맑게만드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알려드리겠습니다.,알려드리도록 하겠습니다.,알려드릴게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감소하,떨어지,떨어트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예로부터,옛날부터,예전부터,오래전부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과적이어서,효과가 좋아서,효과가 상당해서,효과가 높아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함유되,포함되</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함유돼,포함돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억제시켜,억제해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어 있는,포함되어 있는,들어가 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한,여러가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종,가지가지,갖가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유발하,일으키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라는,이라고 하는,이라 하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 도움,큰 도움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배출시켜,배출해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생기게,발생하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌓인,축적된,쌓이게 된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱더,더더욱,더욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인해서,인하여,인해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁해지거나,걸쭉해지거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인이 되는,원인인,원인의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주며, 주고, 주어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성해 주는,만들어 주는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지해,지속시켜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돕고,도와주고,도와주며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과다 섭취,과하게 섭취,많이 섭취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬 성질,차가운 성질,냉한 성질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뿐만 아니라, 더불어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생길 수,일어날 수,생기게 될 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위해서,위하여,위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있기 때문에,있으므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>을 정도로,을 만큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 꼭, 반드시, 필수로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련,연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배출하고,내보내고,배출시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막아주고,방지하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 강하지, 쎄지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내외로,안팎으로,안과 밖으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제부터,지금부터,바로 지금부터,현 시점부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대해서, 대하여, 연관하여, 관련하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 낮춰주고, 감소시키고, 저하시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 효과적이며, 효과가 뛰어나며, 효과가 대단하며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 효과적이고, 효과가 뛰어나고, 효과가 대단하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 준다고 알려져, 주는 것으로 알려져, 준다는 것으로 알려져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으뜸인,최고인,제일인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 줄이고, 줄여주고, 줄이게 되고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,36 +1545,726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E9782-B08B-4BD9-9A5D-9888DBE83BCE}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="109.125" customWidth="1"/>
+    <col min="1" max="1" width="63.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -445,46 +2274,638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2662AC-E4BC-4372-B132-587203A45E0A}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>